--- a/proj_first_follow.xlsx
+++ b/proj_first_follow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="175">
   <si>
     <t>Non-terminals</t>
   </si>
@@ -405,13 +405,7 @@
     <t>, G</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;prog&gt; </t>
-  </si>
-  <si>
-    <t>Terminal</t>
   </si>
   <si>
     <t>&lt;identifier&gt;</t>
@@ -907,6 +901,9 @@
   </si>
   <si>
     <t>JV</t>
+  </si>
+  <si>
+    <t>Non-Terminal</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,35 +1477,35 @@
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="1" t="s">
@@ -1529,7 +1526,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1546,11 +1543,11 @@
       <c r="O7" s="1"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1558,7 +1555,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="3"/>
@@ -1575,27 +1572,27 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1607,16 +1604,16 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>139</v>
+      <c r="A12" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>10</v>
@@ -1628,12 +1625,12 @@
       <c r="O12" s="1"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>11</v>
@@ -1644,23 +1641,23 @@
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1676,7 +1673,7 @@
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1688,11 +1685,11 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -1709,7 +1706,7 @@
       <c r="H17" s="1"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -1721,11 +1718,11 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -1737,11 +1734,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -1769,11 +1766,11 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -1789,7 +1786,7 @@
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -1805,7 +1802,7 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -1818,7 +1815,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -2026,34 +2023,34 @@
         <v>95</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2269,16 +2266,16 @@
         <v>8</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2295,7 +2292,7 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -2459,16 +2456,16 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2805,7 +2802,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
@@ -2818,9 +2815,7 @@
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
         <v>19</v>
       </c>
@@ -3236,12 +3231,12 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>77</v>
@@ -3249,7 +3244,7 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
@@ -3257,7 +3252,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
@@ -3265,7 +3260,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>5</v>
@@ -3273,7 +3268,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>6</v>
@@ -3281,7 +3276,7 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>7</v>
@@ -3289,7 +3284,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>8</v>
@@ -3297,7 +3292,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>9</v>
@@ -3305,7 +3300,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
@@ -3313,7 +3308,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>11</v>
@@ -3321,7 +3316,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
@@ -3329,7 +3324,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
@@ -3337,7 +3332,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>14</v>
@@ -3345,7 +3340,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>19</v>
@@ -3353,7 +3348,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>15</v>
@@ -3361,7 +3356,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
@@ -3369,7 +3364,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -3377,7 +3372,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>59</v>
